--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs code\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C83474-96CF-4533-8153-04B16C05BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D442DF-032B-4FDA-9D37-30B5BC2E37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3329,7 +3332,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3340,7 +3343,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs code\cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D442DF-032B-4FDA-9D37-30B5BC2E37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD792C-6C45-4B8A-8525-29E085CCBE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -3354,7 +3354,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
